--- a/data/evaluation/evaluation_South_Winter_Eggplants.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Eggplants.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3208.779867418415</v>
+        <v>3182.641740259509</v>
       </c>
       <c r="C4" t="n">
-        <v>27297173.35701253</v>
+        <v>27352866.28568433</v>
       </c>
       <c r="D4" t="n">
-        <v>5224.669688794932</v>
+        <v>5229.996776833073</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8318644209267907</v>
+        <v>-0.8356018736365189</v>
       </c>
     </row>
     <row r="5">
